--- a/data/raw_data_before_2020/2019/permits-by-county-2019.xlsx
+++ b/data/raw_data_before_2020/2019/permits-by-county-2019.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Dashboard - Monthly Stats &amp; Web Statistics\WEBSITE Statistics\2019\Dec 2019 -\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC00B9-3316-4F57-B20E-C293221BCDBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7F464-29E3-46A0-9515-CA476D67FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25142C02-1860-417B-9530-18277630F88B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25142C02-1860-417B-9530-18277630F88B}"/>
   </bookViews>
   <sheets>
     <sheet name="Permits by County" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permits by County'!$B$2:$I$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,6 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -148,6 +155,9 @@
   </si>
   <si>
     <t>Jan - Dec</t>
+  </si>
+  <si>
+    <t>Obs</t>
   </si>
 </sst>
 </file>
@@ -400,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,6 +427,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FAC7A1-3C32-41E8-B98B-7CA1F026A27E}">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,8 +760,8 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,8 +783,11 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>2019</v>
       </c>
@@ -796,7 +810,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="14" t="s">
         <v>6</v>
@@ -816,8 +830,11 @@
       <c r="H4" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="10" t="s">
         <v>7</v>
@@ -838,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="10" t="s">
         <v>8</v>
@@ -859,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="10" t="s">
         <v>9</v>
@@ -880,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
@@ -901,7 +918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="10" t="s">
         <v>11</v>
@@ -922,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="10" t="s">
         <v>12</v>
@@ -943,7 +960,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="10" t="s">
         <v>13</v>
@@ -964,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
         <v>14</v>
@@ -985,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="10" t="s">
         <v>15</v>
@@ -1006,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -1027,7 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
         <v>17</v>
@@ -1048,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="10" t="s">
         <v>18</v>
@@ -1370,6 +1387,7 @@
       <c r="B32" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I30" xr:uid="{15FAC7A1-3C32-41E8-B98B-7CA1F026A27E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
